--- a/Componentes/Lista de Componentes.xlsx
+++ b/Componentes/Lista de Componentes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>Cantidad</t>
   </si>
@@ -136,6 +136,33 @@
   </si>
   <si>
     <t>Notas</t>
+  </si>
+  <si>
+    <t>Tornillos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dimensión </t>
+  </si>
+  <si>
+    <t>Tipo de cabeza</t>
+  </si>
+  <si>
+    <t>M4x20</t>
+  </si>
+  <si>
+    <t>M3x12</t>
+  </si>
+  <si>
+    <t>M2.5x10</t>
+  </si>
+  <si>
+    <t>M2.5x4</t>
+  </si>
+  <si>
+    <t>Cilindrica</t>
+  </si>
+  <si>
+    <t>Conica</t>
   </si>
 </sst>
 </file>
@@ -198,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -216,6 +243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -678,7 +706,7 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
@@ -689,7 +717,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>1</v>
       </c>
@@ -700,7 +728,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>16</v>
       </c>
@@ -711,7 +739,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>17</v>
       </c>
@@ -722,7 +750,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>18</v>
       </c>
@@ -733,7 +761,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>3</v>
       </c>
@@ -744,17 +772,92 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>1</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
